--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71207A11-0CFD-4D72-A889-658EF5C6AF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7727B4B5-9E0E-4D06-8A7C-A2CCAD9D316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6C197078-07F8-44DC-9BE5-F2FCC11E8939}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E6A2C1B2-1D73-4075-B0CF-D10AC2DEEB89}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>三組以上母體比例 H0:全部母體比例相同  Ha:並非全部母體比例相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨立檢定  H0:xx與xx為互相獨立, Ha:xx與xx並非互相獨立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多相機率分配(無Y/N)  H0:全部比例相同, Ha:並非全部比例相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>適合度檢定是否服從常態分配 H0:母體服從平均數為xxx與標準差為xxx的常態分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三組以上母體平均  mu1, mu2, mu3, H0:全部母體平均相同, 單因子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機及區(實驗對象有差異)  雙因子 無重複</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙因子實驗(兩三個level)  雙因子 重複</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="181" formatCode="0.00000E+00"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -84,14 +117,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,129 +456,53 @@
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="4">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B1E40B6D-79CE-4E56-9549-D723DC13DF74}">
-  <we:reference id="wa200005502" version="1.0.0.11" store="zh-TW" storeType="OMEX"/>
-  <we:alternateReferences>
-    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
-  </we:alternateReferences>
-  <we:properties>
-    <we:property name="docId" value="&quot;31ICjYwPTXmtciACOj8Fi&quot;"/>
-  </we:properties>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-  <we:extLst>
-    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
-      <we:customFunctionIdList>
-        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
-      </we:customFunctionIdList>
-    </a:ext>
-  </we:extLst>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481FFBFF-2FA2-4AA6-A2BA-9BF61BF45621}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8655C5-1C6C-4FA0-B885-FCEB19097C27}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>IF(FALSE, "z = (x_bar - mu0) / (sigma/N)", "")</f>
-        <v/>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(FALSE, "t = (x_bar - mu0) / (s/N)", "")</f>
-        <v/>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>IF(FALSE, "sigma_p_bar = (p0(1-p0) / n)**0.5", "")</f>
-        <v/>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(FALSE, "(p_bar - p0) / sigma_p_bar", "")</f>
-        <v/>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>IF(FALSE, "z = (x_bar1 - x_bar2 - D0) / (sigma1**2/n1 + sigma2**2/n2)**0.5", "")</f>
-        <v/>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>IF(FALSE, "t = (x_bar1 - x_bar2 - D0) / (s1**2/n1 + s2**2/n2)**0.5", "")</f>
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <f>IF(FALSE, "df = (s1^2/n1 + s2^2/n2)^2 / (1/(n1-1)*(s1^2/n1)^2 + 1/(n2-1)*(s2^2/n2)^2", "")</f>
-        <v/>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>IF(FALSE, "d_bar = Sum(d)/n", "")</f>
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <f>IF(FALSE, "sd = (sum((di-d_bar)^2) / (n-1))**0.5", "")</f>
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <f>IF(FALSE, "t = (d_bar - mu_d) / (sd/n**0.5)", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="2"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>